--- a/Documentacion_bots/Bot AC/Cronograma_Actividades.xlsx
+++ b/Documentacion_bots/Bot AC/Cronograma_Actividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Documentacion_bots\Bot AC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5053C1D7-CAD0-4C5C-8F1E-1A696E0EEC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F4AFB-2428-490D-9665-732317AC95C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{BE96091D-5CDF-4F93-B41A-0BEAD7A0C449}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{BE96091D-5CDF-4F93-B41A-0BEAD7A0C449}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="5">
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="D3" s="5">
-        <v>44776</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="D4" s="5">
-        <v>44778</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -569,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="D5" s="5">
-        <v>44781</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="D6" s="5">
-        <v>44782</v>
+        <v>44783</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion_bots/Bot AC/Cronograma_Actividades.xlsx
+++ b/Documentacion_bots/Bot AC/Cronograma_Actividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Documentacion_bots\Bot AC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F4AFB-2428-490D-9665-732317AC95C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF112AEB-3CB7-44F6-B6D8-F6C55363986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{BE96091D-5CDF-4F93-B41A-0BEAD7A0C449}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE96091D-5CDF-4F93-B41A-0BEAD7A0C449}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Fase</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Planeación</t>
   </si>
   <si>
-    <t>Desarrollo</t>
-  </si>
-  <si>
     <t>Pruebas</t>
   </si>
   <si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t>Paso a Produccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo bot </t>
+  </si>
+  <si>
+    <t>desarrollo OCR</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E10699A-5C67-4EFE-BBB8-0074237E9FB3}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -527,66 +530,80 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>44764</v>
+        <v>44769</v>
       </c>
       <c r="D2" s="5">
-        <v>44765</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>44768</v>
+        <v>44771</v>
       </c>
       <c r="D3" s="5">
-        <v>44777</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="D4" s="5">
-        <v>44781</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
-        <v>44782</v>
+        <v>44790</v>
       </c>
       <c r="D5" s="5">
-        <v>44782</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="D6" s="5">
-        <v>44783</v>
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44793</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44793</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion_bots/Bot AC/Cronograma_Actividades.xlsx
+++ b/Documentacion_bots/Bot AC/Cronograma_Actividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Documentacion_bots\Bot AC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF112AEB-3CB7-44F6-B6D8-F6C55363986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A887593-EC74-4C38-A13E-03DD005EDD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE96091D-5CDF-4F93-B41A-0BEAD7A0C449}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Desarrollo bot </t>
   </si>
   <si>
-    <t>desarrollo OCR</t>
+    <t>Desarrollo OCR</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E10699A-5C67-4EFE-BBB8-0074237E9FB3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
